--- a/CE_PY_CODE/Titanic_test/ce_output/CE2_EDA_report.xlsx
+++ b/CE_PY_CODE/Titanic_test/ce_output/CE2_EDA_report.xlsx
@@ -17,21 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>miss_cnt</t>
   </si>
   <si>
     <t>ones_cnt</t>
   </si>
   <si>
-    <t>good</t>
+    <t>overall_good</t>
   </si>
   <si>
     <t>new_var</t>
@@ -49,7 +46,7 @@
     <t>R1_IsChild</t>
   </si>
   <si>
-    <t>unique_cnt</t>
+    <t>uniq_cnt</t>
   </si>
   <si>
     <t>max_cnt</t>
@@ -64,9 +61,6 @@
     <t>R1_Embarked</t>
   </si>
   <si>
-    <t>R1_Cabin2</t>
-  </si>
-  <si>
     <t>Sign</t>
   </si>
   <si>
@@ -97,12 +91,21 @@
     <t>Parch</t>
   </si>
   <si>
+    <t>R1_Pclass</t>
+  </si>
+  <si>
+    <t>R1_LN_Parch</t>
+  </si>
+  <si>
     <t>(-)</t>
   </si>
   <si>
     <t>(+)</t>
   </si>
   <si>
+    <t>LN_(+)</t>
+  </si>
+  <si>
     <t>P_lo</t>
   </si>
   <si>
@@ -115,13 +118,13 @@
     <t>Fare</t>
   </si>
   <si>
-    <t>IV_Age</t>
-  </si>
-  <si>
-    <t>SR_Fare</t>
-  </si>
-  <si>
-    <t>IV_(-)</t>
+    <t>R1_LN_Age</t>
+  </si>
+  <si>
+    <t>R1_SR_Fare</t>
+  </si>
+  <si>
+    <t>LN_(-)</t>
   </si>
   <si>
     <t>SR_(+)</t>
@@ -482,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,48 +507,39 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3901</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>3901</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2072</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2072</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -555,79 +549,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>15597</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>15597</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1016</v>
-      </c>
-      <c r="E3">
-        <v>14890</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>16867</v>
       </c>
     </row>
   </sheetData>
@@ -637,13 +610,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,25 +624,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
@@ -684,18 +657,15 @@
         <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -703,46 +673,43 @@
       <c r="D2">
         <v>12860</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>890.9815391896573</v>
       </c>
       <c r="M2">
-        <v>2.47695</v>
+        <v>7.773582621104757E-199</v>
       </c>
       <c r="N2">
-        <v>890.9815391896573</v>
-      </c>
-      <c r="O2">
-        <v>7.773582621104757E-199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -750,38 +717,35 @@
       <c r="D3">
         <v>16006</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>258.9865376691578</v>
       </c>
       <c r="M3">
-        <v>0.3293</v>
+        <v>7.112205959110125E-63</v>
       </c>
       <c r="N3">
-        <v>106.1372818294931</v>
-      </c>
-      <c r="O3">
-        <v>4.168531267809051E-28</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -791,13 +755,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,136 +769,127 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>4170</v>
       </c>
       <c r="C2">
-        <v>4170</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>70</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>0.42</v>
       </c>
       <c r="J2">
-        <v>0.42</v>
+        <v>71</v>
       </c>
       <c r="K2">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="L2">
         <v>28</v>
       </c>
       <c r="M2">
-        <v>28</v>
+        <v>101.9759841243249</v>
       </c>
       <c r="N2">
-        <v>198.1566463478866</v>
-      </c>
-      <c r="O2">
-        <v>5.709491893186158E-47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.751249705048031E-26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>164.8667</v>
       </c>
       <c r="E3">
-        <v>164.8667</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>234.02505</v>
       </c>
       <c r="K3">
-        <v>234.02505</v>
+        <v>11.5</v>
       </c>
       <c r="L3">
         <v>11.5</v>
       </c>
       <c r="M3">
-        <v>11.5</v>
+        <v>963.4358634286364</v>
       </c>
       <c r="N3">
-        <v>963.4358634286364</v>
-      </c>
-      <c r="O3">
         <v>8.798178069859467E-220</v>
       </c>
     </row>

--- a/CE_PY_CODE/Titanic_test/ce_output/CE2_EDA_report.xlsx
+++ b/CE_PY_CODE/Titanic_test/ce_output/CE2_EDA_report.xlsx
@@ -7,21 +7,25 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Binary" sheetId="1" r:id="rId1"/>
-    <sheet name="Nominal" sheetId="2" r:id="rId2"/>
-    <sheet name="Ordinal" sheetId="3" r:id="rId3"/>
-    <sheet name="Continuous" sheetId="4" r:id="rId4"/>
+    <sheet name="Binary Variables" sheetId="1" r:id="rId1"/>
+    <sheet name="Nominal Variables" sheetId="2" r:id="rId2"/>
+    <sheet name="Ordinal Variables" sheetId="3" r:id="rId3"/>
+    <sheet name="Continuous Variables" sheetId="4" r:id="rId4"/>
+    <sheet name="Correlations" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>miss_cnt</t>
   </si>
   <si>
@@ -40,6 +44,9 @@
     <t>IsChild</t>
   </si>
   <si>
+    <t>binary</t>
+  </si>
+  <si>
     <t>R1_IsFemale</t>
   </si>
   <si>
@@ -55,7 +62,7 @@
     <t>Embarked</t>
   </si>
   <si>
-    <t>Cabin2</t>
+    <t>nominal</t>
   </si>
   <si>
     <t>R1_Embarked</t>
@@ -67,6 +74,15 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>Chisq</t>
+  </si>
+  <si>
+    <t>PValue</t>
+  </si>
+  <si>
+    <t>FValue</t>
+  </si>
+  <si>
     <t>var_lb</t>
   </si>
   <si>
@@ -79,22 +95,19 @@
     <t>miss_impute</t>
   </si>
   <si>
-    <t>Chisq</t>
-  </si>
-  <si>
-    <t>PValue</t>
-  </si>
-  <si>
     <t>Pclass</t>
   </si>
   <si>
     <t>Parch</t>
   </si>
   <si>
+    <t>ordinal</t>
+  </si>
+  <si>
     <t>R1_Pclass</t>
   </si>
   <si>
-    <t>R1_LN_Parch</t>
+    <t>R1_Parch</t>
   </si>
   <si>
     <t>(-)</t>
@@ -103,7 +116,16 @@
     <t>(+)</t>
   </si>
   <si>
-    <t>LN_(+)</t>
+    <t>890.9815391896573</t>
+  </si>
+  <si>
+    <t>106.13728182949308</t>
+  </si>
+  <si>
+    <t>7.773582621104757e-199</t>
+  </si>
+  <si>
+    <t>4.168531267809051e-28</t>
   </si>
   <si>
     <t>P_lo</t>
@@ -118,16 +140,43 @@
     <t>Fare</t>
   </si>
   <si>
-    <t>R1_LN_Age</t>
-  </si>
-  <si>
-    <t>R1_SR_Fare</t>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>R1_Age</t>
+  </si>
+  <si>
+    <t>R1_Fare</t>
   </si>
   <si>
     <t>LN_(-)</t>
   </si>
   <si>
     <t>SR_(+)</t>
+  </si>
+  <si>
+    <t>101.9759841243249</t>
+  </si>
+  <si>
+    <t>963.4358634286364</t>
+  </si>
+  <si>
+    <t>1.751249705048031e-26</t>
+  </si>
+  <si>
+    <t>8.798178069859467e-220</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>PassengerId</t>
+  </si>
+  <si>
+    <t>mod_val_test</t>
   </si>
 </sst>
 </file>
@@ -485,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,39 +556,48 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3901</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>2072</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -549,58 +607,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>15597</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>16867</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -610,13 +666,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,127 +680,139 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="E2">
+        <v>12860</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>12860</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>890.9815391896573</v>
-      </c>
-      <c r="M2">
-        <v>7.773582621104757E-199</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>16006</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>6</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>258.9865376691578</v>
-      </c>
-      <c r="M3">
-        <v>7.112205959110125E-63</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
     </row>
@@ -755,13 +823,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,128 +837,233 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>4170</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2">
+        <v>0.42</v>
+      </c>
+      <c r="N2">
+        <v>71</v>
+      </c>
+      <c r="O2">
+        <v>28</v>
+      </c>
+      <c r="P2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>164.8667</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>234.02505</v>
+      </c>
+      <c r="O3">
+        <v>11.5</v>
+      </c>
+      <c r="P3">
+        <v>11.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.4050163044428671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0.2545831366449777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>-0.2250833116537949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>4170</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>70</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2">
-        <v>0.42</v>
-      </c>
-      <c r="J2">
-        <v>71</v>
-      </c>
-      <c r="K2">
-        <v>28</v>
-      </c>
-      <c r="L2">
-        <v>28</v>
-      </c>
-      <c r="M2">
-        <v>101.9759841243249</v>
-      </c>
-      <c r="N2">
-        <v>1.751249705048031E-26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>164.8667</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>234.02505</v>
-      </c>
-      <c r="K3">
-        <v>11.5</v>
-      </c>
-      <c r="L3">
-        <v>11.5</v>
-      </c>
-      <c r="M3">
-        <v>963.4358634286364</v>
-      </c>
-      <c r="N3">
-        <v>8.798178069859467E-220</v>
+      <c r="B5">
+        <v>0.1471056856820604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0.07965630325389737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.07755221007880497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>-0.0323982196352762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>-0.01455895376377057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>0.0117002949096514</v>
       </c>
     </row>
   </sheetData>
